--- a/data/trans_orig/P1411-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1411-Edad-trans_orig.xlsx
@@ -1083,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5262</v>
+        <v>6220</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.001527323185697667</v>
@@ -1092,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.007717087010100957</v>
+        <v>0.009122057119311314</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6581</v>
+        <v>5716</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.001471545068590033</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.009274156205497085</v>
+        <v>0.008055583432909278</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2</v>
@@ -1125,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>6285</v>
+        <v>6274</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.001498878693861242</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.004517146665391656</v>
+        <v>0.004509208719993053</v>
       </c>
     </row>
     <row r="11">
@@ -1151,7 +1151,7 @@
         <v>680822</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>676601</v>
+        <v>675643</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>681863</v>
@@ -1160,7 +1160,7 @@
         <v>0.9984726768143023</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.992282912989902</v>
+        <v>0.9908779428806888</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1172,7 +1172,7 @@
         <v>708530</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>702993</v>
+        <v>703858</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>709574</v>
@@ -1181,7 +1181,7 @@
         <v>0.99852845493141</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9907258437945021</v>
+        <v>0.9919444165670902</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1193,7 +1193,7 @@
         <v>1389351</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1385152</v>
+        <v>1385163</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>1391437</v>
@@ -1202,7 +1202,7 @@
         <v>0.9985011213061388</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9954828533346084</v>
+        <v>0.9954907912800069</v>
       </c>
       <c r="W11" s="6" t="n">
         <v>1</v>
@@ -1297,19 +1297,19 @@
         <v>4266</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1127</v>
+        <v>1034</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10083</v>
+        <v>9735</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.006940531727465248</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001833372979620799</v>
+        <v>0.001681835599368241</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01640532552381822</v>
+        <v>0.01583945202263408</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -1318,19 +1318,19 @@
         <v>3423</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1055</v>
+        <v>1060</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>9765</v>
+        <v>8910</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.005573186301428897</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.00171719372703611</v>
+        <v>0.001725499240534126</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01589678004275288</v>
+        <v>0.01450576249037857</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>7</v>
@@ -1339,19 +1339,19 @@
         <v>7689</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3281</v>
+        <v>3266</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>15629</v>
+        <v>15520</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.006257055306173352</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.002670263827503274</v>
+        <v>0.002657672217305629</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01271786195999034</v>
+        <v>0.01262899345890929</v>
       </c>
     </row>
     <row r="14">
@@ -1368,19 +1368,19 @@
         <v>610351</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>604534</v>
+        <v>604882</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>613490</v>
+        <v>613583</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9930594682725348</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.983594674476182</v>
+        <v>0.984160547977366</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9981666270203792</v>
+        <v>0.9983181644006318</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>535</v>
@@ -1389,19 +1389,19 @@
         <v>610841</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>604499</v>
+        <v>605354</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>613209</v>
+        <v>613204</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9944268136985711</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9841032199572473</v>
+        <v>0.9854942375096216</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9982828062729638</v>
+        <v>0.9982745007594659</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1079</v>
@@ -1410,19 +1410,19 @@
         <v>1221191</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1213251</v>
+        <v>1213360</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1225599</v>
+        <v>1225614</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9937429446938266</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9872821380400096</v>
+        <v>0.9873710065410908</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9973297361724968</v>
+        <v>0.9973423277826944</v>
       </c>
     </row>
     <row r="15">
@@ -1514,19 +1514,19 @@
         <v>17625</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10307</v>
+        <v>10361</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>26912</v>
+        <v>26689</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04104187217392112</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02400207712640498</v>
+        <v>0.0241268969799796</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06267021377592003</v>
+        <v>0.06214959764922011</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -1535,19 +1535,19 @@
         <v>6414</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2296</v>
+        <v>3066</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13176</v>
+        <v>14115</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01432405441647544</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.005126343705362596</v>
+        <v>0.006845928701579095</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02942370124491718</v>
+        <v>0.03152034420163044</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>23</v>
@@ -1556,19 +1556,19 @@
         <v>24039</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>15405</v>
+        <v>15697</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>34666</v>
+        <v>34473</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02740320244201115</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01756118055083852</v>
+        <v>0.01789359218593151</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03951808046104964</v>
+        <v>0.03929760194918339</v>
       </c>
     </row>
     <row r="17">
@@ -1585,19 +1585,19 @@
         <v>411804</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>402517</v>
+        <v>402740</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>419122</v>
+        <v>419068</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9589581278260789</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9373297862240799</v>
+        <v>0.9378504023507798</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.975997922873595</v>
+        <v>0.9758731030200204</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>400</v>
@@ -1606,19 +1606,19 @@
         <v>441386</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>434624</v>
+        <v>433685</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>445504</v>
+        <v>444734</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9856759455835246</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9705762987550828</v>
+        <v>0.9684796557983696</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9948736562946374</v>
+        <v>0.9931540712984209</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>776</v>
@@ -1627,19 +1627,19 @@
         <v>853190</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>842563</v>
+        <v>842756</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>861824</v>
+        <v>861532</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9725967975579889</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9604819195389503</v>
+        <v>0.9607023980508166</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9824388194491614</v>
+        <v>0.9821064078140685</v>
       </c>
     </row>
     <row r="18">
@@ -1731,19 +1731,19 @@
         <v>15016</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>8406</v>
+        <v>8442</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>25198</v>
+        <v>25176</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04847069202699113</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02713423316652204</v>
+        <v>0.02725122152413106</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08134045281121906</v>
+        <v>0.08126920807095454</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>9</v>
@@ -1752,19 +1752,19 @@
         <v>8707</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3898</v>
+        <v>3854</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>16484</v>
+        <v>15492</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0245955847379861</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01101196724489137</v>
+        <v>0.01088768106226773</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0465644653127418</v>
+        <v>0.04376338386822051</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>22</v>
@@ -1773,19 +1773,19 @@
         <v>23722</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>15236</v>
+        <v>15096</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>36741</v>
+        <v>34929</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03573806270189122</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02295384286152955</v>
+        <v>0.02274176103241956</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05535065833269477</v>
+        <v>0.05262162522873318</v>
       </c>
     </row>
     <row r="20">
@@ -1802,19 +1802,19 @@
         <v>294770</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>284588</v>
+        <v>284610</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>301380</v>
+        <v>301344</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9515293079730088</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9186595471887807</v>
+        <v>0.9187307919290454</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9728657668334778</v>
+        <v>0.9727487784758689</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>335</v>
@@ -1823,19 +1823,19 @@
         <v>345289</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>337512</v>
+        <v>338504</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>350098</v>
+        <v>350142</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9754044152620139</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9534355346872584</v>
+        <v>0.9562366161317795</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9889880327551086</v>
+        <v>0.9891123189377322</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>604</v>
@@ -1844,19 +1844,19 @@
         <v>640060</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>627041</v>
+        <v>628853</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>648546</v>
+        <v>648686</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9642619372981088</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9446493416673054</v>
+        <v>0.9473783747712669</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9770461571384705</v>
+        <v>0.9772582389675805</v>
       </c>
     </row>
     <row r="21">
@@ -1948,19 +1948,19 @@
         <v>32689</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>22856</v>
+        <v>23135</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>46131</v>
+        <v>45020</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1308346676734678</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09147833519950638</v>
+        <v>0.09259387160033629</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1846328905447765</v>
+        <v>0.1801860480557322</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>17</v>
@@ -1969,19 +1969,19 @@
         <v>18587</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>11024</v>
+        <v>11071</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>28437</v>
+        <v>29112</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04793105786767556</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02842706120179405</v>
+        <v>0.02854751884729489</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07332945294477351</v>
+        <v>0.07507023280322463</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>46</v>
@@ -1990,19 +1990,19 @@
         <v>51277</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>37129</v>
+        <v>38474</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>64987</v>
+        <v>68420</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08041538757757268</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05822778163097544</v>
+        <v>0.06033793442331811</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1019169066141926</v>
+        <v>0.1073005394314599</v>
       </c>
     </row>
     <row r="23">
@@ -2019,19 +2019,19 @@
         <v>217162</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>203720</v>
+        <v>204831</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>226995</v>
+        <v>226716</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8691653323265321</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8153671094552233</v>
+        <v>0.8198139519442678</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9085216648004935</v>
+        <v>0.9074061283996636</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>332</v>
@@ -2040,19 +2040,19 @@
         <v>369209</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>359359</v>
+        <v>358684</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>376772</v>
+        <v>376725</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9520689421323244</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9266705470552262</v>
+        <v>0.9249297671967758</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9715729387982059</v>
+        <v>0.9714524811527051</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>525</v>
@@ -2061,19 +2061,19 @@
         <v>586370</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>572660</v>
+        <v>569227</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>600518</v>
+        <v>599173</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9195846124224273</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8980830933858074</v>
+        <v>0.8926994605685401</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9417722183690246</v>
+        <v>0.9396620655766815</v>
       </c>
     </row>
     <row r="24">
@@ -2165,19 +2165,19 @@
         <v>70636</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>54455</v>
+        <v>54937</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>89446</v>
+        <v>90636</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0206130817852493</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01589114116732287</v>
+        <v>0.01603160196711035</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02610206729284628</v>
+        <v>0.02644943730033504</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>36</v>
@@ -2186,19 +2186,19 @@
         <v>38176</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>27581</v>
+        <v>27185</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>53502</v>
+        <v>53006</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01074198558200681</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.007760751412921431</v>
+        <v>0.007649202574002363</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0150544481864663</v>
+        <v>0.01491470250922162</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>100</v>
@@ -2207,19 +2207,19 @@
         <v>108813</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>87439</v>
+        <v>89514</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>132410</v>
+        <v>134203</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01558764437698421</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01252576309711328</v>
+        <v>0.01282313836057377</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01896801043737251</v>
+        <v>0.01922489305009959</v>
       </c>
     </row>
     <row r="26">
@@ -2236,19 +2236,19 @@
         <v>3356143</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3337333</v>
+        <v>3336143</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3372324</v>
+        <v>3371842</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9793869182147507</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9738979327071537</v>
+        <v>0.9735505626996648</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.984108858832677</v>
+        <v>0.9839683980328896</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3259</v>
@@ -2257,19 +2257,19 @@
         <v>3515740</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3500414</v>
+        <v>3500910</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3526335</v>
+        <v>3526731</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9892580144179932</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9849455518135337</v>
+        <v>0.9850852974907784</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9922392485870787</v>
+        <v>0.9923507974259979</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6404</v>
@@ -2278,19 +2278,19 @@
         <v>6871881</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6848284</v>
+        <v>6846491</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6893255</v>
+        <v>6891180</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9844123556230158</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9810319895626275</v>
+        <v>0.9807751069499003</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9874742369028866</v>
+        <v>0.9871768616394262</v>
       </c>
     </row>
     <row r="27">
@@ -2797,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5254</v>
+        <v>4451</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.001521002156329289</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.008896954270966534</v>
+        <v>0.007536932300489105</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -2831,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>5223</v>
+        <v>5012</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0007782625646204357</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.004525868254626914</v>
+        <v>0.004342957308449216</v>
       </c>
     </row>
     <row r="8">
@@ -2857,7 +2857,7 @@
         <v>589598</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>585242</v>
+        <v>586045</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>590496</v>
@@ -2866,7 +2866,7 @@
         <v>0.9984789978436707</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9911030457290333</v>
+        <v>0.9924630676995109</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -2891,7 +2891,7 @@
         <v>1153142</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1148817</v>
+        <v>1149028</v>
       </c>
       <c r="T8" s="5" t="n">
         <v>1154040</v>
@@ -2900,7 +2900,7 @@
         <v>0.9992217374353796</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9954741317453729</v>
+        <v>0.9956570426915501</v>
       </c>
       <c r="W8" s="6" t="n">
         <v>1</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5133</v>
+        <v>5942</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.001519188640052946</v>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.007671827983394159</v>
+        <v>0.008880734161620453</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -3019,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5170</v>
+        <v>5160</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.001363169139043743</v>
@@ -3028,7 +3028,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.007817272758226924</v>
+        <v>0.0078020416241427</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2</v>
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>6770</v>
+        <v>7614</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.001441630971429006</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.005088717615242887</v>
+        <v>0.005722587887052463</v>
       </c>
     </row>
     <row r="11">
@@ -3066,7 +3066,7 @@
         <v>668081</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>663964</v>
+        <v>663155</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>669097</v>
@@ -3075,7 +3075,7 @@
         <v>0.998480811359947</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9923281720166058</v>
+        <v>0.9911192658383798</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -3087,7 +3087,7 @@
         <v>660484</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>656216</v>
+        <v>656226</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>661386</v>
@@ -3096,7 +3096,7 @@
         <v>0.9986368308609562</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9921827272417737</v>
+        <v>0.9921979583758572</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -3108,7 +3108,7 @@
         <v>1328565</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1323713</v>
+        <v>1322869</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>1330483</v>
@@ -3117,7 +3117,7 @@
         <v>0.998558369028571</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9949112823847571</v>
+        <v>0.9942774121129476</v>
       </c>
       <c r="W11" s="6" t="n">
         <v>1</v>
@@ -3212,19 +3212,19 @@
         <v>9088</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4184</v>
+        <v>4224</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>18506</v>
+        <v>16937</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01406746908899047</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.00647595970976865</v>
+        <v>0.006538915576308322</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02864478909052594</v>
+        <v>0.02621658322980295</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -3233,19 +3233,19 @@
         <v>3974</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>998</v>
+        <v>991</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>9992</v>
+        <v>9014</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.006122848267503354</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.001537993448829681</v>
+        <v>0.001526980399767685</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01539347133183542</v>
+        <v>0.01388747538238718</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>12</v>
@@ -3254,19 +3254,19 @@
         <v>13062</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6938</v>
+        <v>7172</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>22002</v>
+        <v>22266</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01008586945957241</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.005356966766112575</v>
+        <v>0.005537471774196478</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01698832612328405</v>
+        <v>0.01719221699641327</v>
       </c>
     </row>
     <row r="14">
@@ -3283,19 +3283,19 @@
         <v>636960</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>627542</v>
+        <v>629111</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>641864</v>
+        <v>641824</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9859325309110095</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9713552109094741</v>
+        <v>0.9737834167701973</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9935240402902313</v>
+        <v>0.9934610844236917</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>598</v>
@@ -3304,19 +3304,19 @@
         <v>645103</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>639085</v>
+        <v>640063</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>648079</v>
+        <v>648086</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9938771517324967</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9846065286681646</v>
+        <v>0.9861125246176129</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9984620065511703</v>
+        <v>0.9984730196002323</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1172</v>
@@ -3325,19 +3325,19 @@
         <v>1282063</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1273123</v>
+        <v>1272859</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1288187</v>
+        <v>1287953</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9899141305404275</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9830116738767161</v>
+        <v>0.9828077830035868</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9946430332338876</v>
+        <v>0.9944625282258035</v>
       </c>
     </row>
     <row r="15">
@@ -3429,19 +3429,19 @@
         <v>14040</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7542</v>
+        <v>7613</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23004</v>
+        <v>23360</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02937706144167674</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01578122004200904</v>
+        <v>0.01592958898910066</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04813304149057741</v>
+        <v>0.04887956851835319</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -3453,7 +3453,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8004</v>
+        <v>6161</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.004039401115750572</v>
@@ -3462,7 +3462,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01610933094274404</v>
+        <v>0.01240087198159931</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>15</v>
@@ -3471,19 +3471,19 @@
         <v>16047</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>9045</v>
+        <v>9389</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>25728</v>
+        <v>24732</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01646218923914872</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009279056486540899</v>
+        <v>0.009632266866900685</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02639389873757527</v>
+        <v>0.02537216160013639</v>
       </c>
     </row>
     <row r="17">
@@ -3500,19 +3500,19 @@
         <v>463878</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>454914</v>
+        <v>454558</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>470376</v>
+        <v>470305</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9706229385583233</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9518669585094222</v>
+        <v>0.9511204314816468</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9842187799579908</v>
+        <v>0.9840704110108993</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>431</v>
@@ -3521,7 +3521,7 @@
         <v>494842</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>488845</v>
+        <v>490688</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>496849</v>
@@ -3530,7 +3530,7 @@
         <v>0.9959605988842495</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9838906690572559</v>
+        <v>0.9875991280183998</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -3542,19 +3542,19 @@
         <v>958720</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>949039</v>
+        <v>950035</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>965722</v>
+        <v>965378</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9835378107608513</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9736061012624249</v>
+        <v>0.9746278383998637</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9907209435134592</v>
+        <v>0.9903677331330994</v>
       </c>
     </row>
     <row r="18">
@@ -3646,19 +3646,19 @@
         <v>21853</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>13580</v>
+        <v>13477</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>32693</v>
+        <v>31708</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06536370820101116</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04061772713304857</v>
+        <v>0.0403108052002154</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09778700212626107</v>
+        <v>0.09483903738630331</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>14</v>
@@ -3667,19 +3667,19 @@
         <v>15451</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>8471</v>
+        <v>8314</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>25155</v>
+        <v>25091</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04090061644416725</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0224242818175467</v>
+        <v>0.02200970644518346</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06659009328012452</v>
+        <v>0.06641934250940075</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>34</v>
@@ -3688,19 +3688,19 @@
         <v>37304</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>26670</v>
+        <v>26737</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>50869</v>
+        <v>52627</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05238613436150762</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03745368465302639</v>
+        <v>0.03754646729293708</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07143579736943927</v>
+        <v>0.07390481403970235</v>
       </c>
     </row>
     <row r="20">
@@ -3717,19 +3717,19 @@
         <v>312477</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>301637</v>
+        <v>302622</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>320750</v>
+        <v>320853</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9346362917989889</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9022129978737393</v>
+        <v>0.9051609626136968</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9593822728669517</v>
+        <v>0.9596891947997847</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>340</v>
@@ -3738,19 +3738,19 @@
         <v>362311</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>352607</v>
+        <v>352671</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>369291</v>
+        <v>369448</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9590993835558328</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9334099067198753</v>
+        <v>0.9335806574905993</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9775757181824533</v>
+        <v>0.9779902935548165</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>645</v>
@@ -3759,19 +3759,19 @@
         <v>674788</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>661223</v>
+        <v>659465</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>685422</v>
+        <v>685355</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9476138656384924</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9285642026305607</v>
+        <v>0.9260951859602976</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9625463153469735</v>
+        <v>0.9624535327070629</v>
       </c>
     </row>
     <row r="21">
@@ -3863,19 +3863,19 @@
         <v>19879</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>13304</v>
+        <v>12420</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>29131</v>
+        <v>28223</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07734979055458258</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05176559807587941</v>
+        <v>0.04832619818959863</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1133503805644472</v>
+        <v>0.1098161371770093</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>18</v>
@@ -3884,19 +3884,19 @@
         <v>22217</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>13676</v>
+        <v>13632</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>34779</v>
+        <v>35341</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05552014213579685</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03417453750186277</v>
+        <v>0.03406488093664969</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0869116691695396</v>
+        <v>0.08831594024736007</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>42</v>
@@ -3905,19 +3905,19 @@
         <v>42096</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>31146</v>
+        <v>31421</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>55266</v>
+        <v>54849</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06405705285004226</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04739422501982386</v>
+        <v>0.04781228524164164</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08409674319612771</v>
+        <v>0.08346246409235515</v>
       </c>
     </row>
     <row r="23">
@@ -3934,19 +3934,19 @@
         <v>237119</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>227867</v>
+        <v>228775</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>243694</v>
+        <v>244578</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9226502094454174</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8866496194355528</v>
+        <v>0.890183862822991</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9482344019241206</v>
+        <v>0.9516738018104015</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>283</v>
@@ -3955,19 +3955,19 @@
         <v>377952</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>365390</v>
+        <v>364828</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>386493</v>
+        <v>386537</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9444798578642032</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9130883308304604</v>
+        <v>0.9116840597526401</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9658254624981373</v>
+        <v>0.9659351190633503</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>561</v>
@@ -3976,19 +3976,19 @@
         <v>615071</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>601901</v>
+        <v>602318</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>626021</v>
+        <v>625746</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9359429471499577</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9159032568038722</v>
+        <v>0.9165375359076444</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9526057749801762</v>
+        <v>0.9521877147583584</v>
       </c>
     </row>
     <row r="24">
@@ -4080,19 +4080,19 @@
         <v>66775</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>52262</v>
+        <v>52161</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>86593</v>
+        <v>83942</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01967225099307931</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01539665724187915</v>
+        <v>0.01536709509836435</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02551082475248932</v>
+        <v>0.02473006492716175</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>39</v>
@@ -4101,19 +4101,19 @@
         <v>44551</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>31598</v>
+        <v>31871</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>60551</v>
+        <v>59844</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01256887126363109</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.008914492141554915</v>
+        <v>0.008991449897761171</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01708279397779573</v>
+        <v>0.01688345805007661</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>106</v>
@@ -4122,19 +4122,19 @@
         <v>111325</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>90934</v>
+        <v>91109</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>133524</v>
+        <v>132483</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01604368514360648</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01310501771838528</v>
+        <v>0.01313024554139002</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0192428113423527</v>
+        <v>0.0190927638453506</v>
       </c>
     </row>
     <row r="26">
@@ -4151,19 +4151,19 @@
         <v>3327575</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3307757</v>
+        <v>3310408</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3342088</v>
+        <v>3342189</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9803277490069207</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9744891752475107</v>
+        <v>0.9752699350728382</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9846033427581209</v>
+        <v>0.9846329049016357</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3299</v>
@@ -4172,19 +4172,19 @@
         <v>3499991</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3483991</v>
+        <v>3484698</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3512944</v>
+        <v>3512671</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.987431128736369</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9829172060222046</v>
+        <v>0.9831165419499235</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9910855078584452</v>
+        <v>0.9910085501022389</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6463</v>
@@ -4193,19 +4193,19 @@
         <v>6827567</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6805368</v>
+        <v>6806409</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6847958</v>
+        <v>6847783</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9839563148563936</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9807571886576475</v>
+        <v>0.9809072361546494</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.986894982281615</v>
+        <v>0.9868697544586099</v>
       </c>
     </row>
     <row r="27">
